--- a/data/DonneesGeneraux.xlsx
+++ b/data/DonneesGeneraux.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denis/Documents/Carte1838/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15501A6E-1F34-9F4D-9898-82C92A397B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="940" yWindow="1860" windowWidth="22760" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille 1 - DonneesGeneraux" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1 - DonneesGeneraux" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
-  <si>
-    <t>DonneesGeneraux</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="157">
   <si>
     <t>Id</t>
   </si>
@@ -104,7 +110,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -161,7 +167,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -209,7 +215,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -251,7 +257,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -282,7 +288,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -324,7 +330,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -366,7 +372,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -405,7 +411,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -447,7 +453,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -495,7 +501,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -546,7 +552,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -588,7 +594,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -633,7 +639,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -678,7 +684,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -723,7 +729,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -759,7 +765,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -807,7 +813,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -843,7 +849,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -888,7 +894,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -930,7 +936,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -966,7 +972,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -986,29 +992,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -1149,51 +1147,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1204,26 +1199,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1422,7 +1476,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1441,7 +1495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1471,7 +1525,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1497,7 +1551,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1523,7 +1577,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1549,7 +1603,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1575,7 +1629,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1601,7 +1655,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1627,7 +1681,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1653,7 +1707,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1679,7 +1733,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1692,9 +1746,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1711,7 +1771,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1730,7 +1790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1756,7 +1816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1782,7 +1842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1808,7 +1868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1834,7 +1894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1860,7 +1920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1886,7 +1946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1912,7 +1972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1938,7 +1998,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1964,7 +2024,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1977,9 +2037,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1993,7 +2059,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2012,7 +2078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2042,7 +2108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2068,7 +2134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2094,7 +2160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2120,7 +2186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2146,7 +2212,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2172,7 +2238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2198,7 +2264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2224,7 +2290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2250,7 +2316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2263,1147 +2329,1134 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P23"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.35156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.67188" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.17188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="67.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="62.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="1" customWidth="1"/>
     <col min="11" max="11" width="21.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="133.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.35156" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="36" style="1" customWidth="1"/>
-    <col min="16" max="16" width="166.672" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="16" max="16" width="166.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1775</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1825</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>20</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1769</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1815</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1769</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1809</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1769</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1821</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="B6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1781</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1824</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="B7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1768</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1835</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="B8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1770</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1832</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="B9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1758</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1817</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="B10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1770</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1842</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="B11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1763</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1815</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="B12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1776</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1832</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="B13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1771</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1813</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="3">
+      <c r="B14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1753</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1815</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="L2" t="s" s="3">
+      <c r="B15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1769</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1796</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
         <v>12</v>
       </c>
-      <c r="M2" t="s" s="3">
+      <c r="B16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1775</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1809</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
         <v>13</v>
       </c>
-      <c r="N2" t="s" s="3">
+      <c r="B17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1768</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1797</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="O2" t="s" s="3">
+      <c r="B18" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1768</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1800</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
         <v>15</v>
       </c>
-      <c r="P2" t="s" s="3">
+      <c r="B19" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1763</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1813</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
         <v>16</v>
       </c>
+      <c r="B20" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1755</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1820</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4">
+    <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>17</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1753</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1800</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1757</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1816</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1775</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1825</v>
-      </c>
-      <c r="E3" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s" s="7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="9">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1769</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1815</v>
-      </c>
-      <c r="E4" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s" s="12">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1769</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1809</v>
-      </c>
-      <c r="E5" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s" s="12">
+      <c r="I22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="N22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G5" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="M5" t="s" s="12">
-        <v>44</v>
-      </c>
-      <c r="N5" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O5" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="P5" t="s" s="12">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1769</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1821</v>
-      </c>
-      <c r="E6" t="s" s="12">
-        <v>48</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s" s="12">
-        <v>49</v>
-      </c>
-      <c r="J6" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="M6" s="13"/>
-      <c r="N6" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O6" s="13"/>
-      <c r="P6" t="s" s="12">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1781</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1824</v>
-      </c>
-      <c r="E7" t="s" s="12">
-        <v>54</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s" s="12">
-        <v>55</v>
-      </c>
-      <c r="J7" t="s" s="12">
-        <v>55</v>
-      </c>
-      <c r="K7" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="M7" t="s" s="12">
-        <v>56</v>
-      </c>
-      <c r="N7" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" t="s" s="12">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1768</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1835</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="J8" t="s" s="12">
-        <v>60</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s" s="12">
-        <v>61</v>
-      </c>
-      <c r="N8" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="O8" t="s" s="12">
-        <v>62</v>
-      </c>
-      <c r="P8" t="s" s="12">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>64</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1770</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1832</v>
-      </c>
-      <c r="E9" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s" s="12">
-        <v>65</v>
-      </c>
-      <c r="J9" t="s" s="12">
-        <v>66</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="M9" t="s" s="12">
-        <v>67</v>
-      </c>
-      <c r="N9" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O9" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="P9" t="s" s="12">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="9">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1758</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1817</v>
-      </c>
-      <c r="E10" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="J10" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="M10" t="s" s="12">
-        <v>73</v>
-      </c>
-      <c r="N10" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="O10" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="P10" t="s" s="12">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="9">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1770</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1842</v>
-      </c>
-      <c r="E11" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="J11" t="s" s="12">
-        <v>77</v>
-      </c>
-      <c r="K11" t="s" s="12">
-        <v>78</v>
-      </c>
-      <c r="L11" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="M11" t="s" s="12">
-        <v>79</v>
-      </c>
-      <c r="N11" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O11" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="P11" t="s" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="9">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s" s="10">
-        <v>81</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1763</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1815</v>
-      </c>
-      <c r="E12" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="G12" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="I12" t="s" s="12">
-        <v>83</v>
-      </c>
-      <c r="J12" t="s" s="12">
-        <v>84</v>
-      </c>
-      <c r="K12" t="s" s="12">
-        <v>85</v>
-      </c>
-      <c r="L12" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="M12" t="s" s="12">
-        <v>86</v>
-      </c>
-      <c r="N12" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O12" t="s" s="12">
-        <v>87</v>
-      </c>
-      <c r="P12" t="s" s="12">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="9">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1776</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1832</v>
-      </c>
-      <c r="E13" t="s" s="12">
-        <v>90</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s" s="12">
-        <v>91</v>
-      </c>
-      <c r="J13" t="s" s="12">
-        <v>92</v>
-      </c>
-      <c r="K13" t="s" s="12">
-        <v>93</v>
-      </c>
-      <c r="L13" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="M13" t="s" s="12">
-        <v>95</v>
-      </c>
-      <c r="N13" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O13" t="s" s="12">
-        <v>96</v>
-      </c>
-      <c r="P13" t="s" s="12">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="9">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s" s="10">
-        <v>98</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1771</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1813</v>
-      </c>
-      <c r="E14" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s" s="12">
-        <v>99</v>
-      </c>
-      <c r="G14" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="I14" t="s" s="12">
-        <v>100</v>
-      </c>
-      <c r="J14" t="s" s="12">
-        <v>101</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="M14" t="s" s="12">
-        <v>102</v>
-      </c>
-      <c r="N14" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O14" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="P14" t="s" s="12">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="9">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s" s="10">
-        <v>104</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1753</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1815</v>
-      </c>
-      <c r="E15" t="s" s="12">
-        <v>105</v>
-      </c>
-      <c r="F15" t="s" s="12">
-        <v>106</v>
-      </c>
-      <c r="G15" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="I15" t="s" s="12">
-        <v>107</v>
-      </c>
-      <c r="J15" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="M15" t="s" s="12">
-        <v>109</v>
-      </c>
-      <c r="N15" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="O15" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="P15" t="s" s="12">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="9">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="C16" s="11">
-        <v>1769</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1796</v>
-      </c>
-      <c r="E16" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s" s="12">
-        <v>112</v>
-      </c>
-      <c r="G16" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="H16" t="s" s="12">
-        <v>113</v>
-      </c>
-      <c r="I16" t="s" s="12">
-        <v>114</v>
-      </c>
-      <c r="J16" t="s" s="12">
-        <v>115</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="M16" t="s" s="12">
-        <v>116</v>
-      </c>
-      <c r="N16" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O16" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="P16" t="s" s="12">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="9">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s" s="10">
-        <v>118</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1775</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1809</v>
-      </c>
-      <c r="E17" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s" s="12">
-        <v>119</v>
-      </c>
-      <c r="G17" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="H17" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="I17" t="s" s="12">
-        <v>120</v>
-      </c>
-      <c r="J17" t="s" s="12">
-        <v>121</v>
-      </c>
-      <c r="K17" t="s" s="12">
-        <v>122</v>
-      </c>
-      <c r="L17" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="M17" t="s" s="12">
-        <v>123</v>
-      </c>
-      <c r="N17" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O17" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="P17" t="s" s="12">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="9">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s" s="10">
-        <v>125</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1768</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1797</v>
-      </c>
-      <c r="E18" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s" s="12">
-        <v>126</v>
-      </c>
-      <c r="G18" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s" s="12">
-        <v>113</v>
-      </c>
-      <c r="I18" t="s" s="12">
-        <v>107</v>
-      </c>
-      <c r="J18" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="M18" t="s" s="12">
-        <v>127</v>
-      </c>
-      <c r="N18" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O18" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="P18" t="s" s="12">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="9">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s" s="10">
-        <v>129</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1768</v>
-      </c>
-      <c r="D19" s="11">
-        <v>1800</v>
-      </c>
-      <c r="E19" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s" s="12">
-        <v>130</v>
-      </c>
-      <c r="G19" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s" s="12">
-        <v>131</v>
-      </c>
-      <c r="I19" t="s" s="12">
-        <v>132</v>
-      </c>
-      <c r="J19" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="K19" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="L19" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="M19" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="N19" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O19" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="P19" t="s" s="12">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="9">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s" s="10">
-        <v>137</v>
-      </c>
-      <c r="C20" s="11">
-        <v>1763</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1813</v>
-      </c>
-      <c r="E20" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s" s="12">
-        <v>138</v>
-      </c>
-      <c r="G20" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="H20" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="I20" t="s" s="12">
-        <v>60</v>
-      </c>
-      <c r="J20" t="s" s="12">
-        <v>60</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="M20" t="s" s="12">
-        <v>139</v>
-      </c>
-      <c r="N20" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O20" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="P20" t="s" s="12">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="9">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s" s="10">
-        <v>141</v>
-      </c>
-      <c r="C21" s="11">
-        <v>1755</v>
-      </c>
-      <c r="D21" s="11">
-        <v>1820</v>
-      </c>
-      <c r="E21" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s" s="12">
-        <v>142</v>
-      </c>
-      <c r="J21" t="s" s="12">
-        <v>143</v>
-      </c>
-      <c r="K21" t="s" s="12">
-        <v>144</v>
-      </c>
-      <c r="L21" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="M21" t="s" s="12">
-        <v>145</v>
-      </c>
-      <c r="N21" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O21" t="s" s="12">
-        <v>146</v>
-      </c>
-      <c r="P21" t="s" s="12">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="9">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s" s="10">
-        <v>148</v>
-      </c>
-      <c r="C22" s="11">
-        <v>1753</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1800</v>
-      </c>
-      <c r="E22" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s" s="12">
-        <v>149</v>
-      </c>
-      <c r="G22" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="H22" t="s" s="12">
-        <v>131</v>
-      </c>
-      <c r="I22" t="s" s="12">
-        <v>150</v>
-      </c>
-      <c r="J22" t="s" s="12">
-        <v>151</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="M22" t="s" s="12">
-        <v>152</v>
-      </c>
-      <c r="N22" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="O22" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="P22" t="s" s="12">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="9">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s" s="10">
-        <v>154</v>
-      </c>
-      <c r="C23" s="11">
-        <v>1757</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1816</v>
-      </c>
-      <c r="E23" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="H23" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s" s="12">
-        <v>55</v>
-      </c>
-      <c r="J23" t="s" s="12">
-        <v>55</v>
-      </c>
-      <c r="K23" t="s" s="12">
-        <v>155</v>
-      </c>
-      <c r="L23" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="M23" t="s" s="12">
+      <c r="O22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="N23" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="O23" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="P23" t="s" s="12">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1" location="" tooltip="" display="https://www.beaux-arts.ca/magazine/votre-collection/votre-collection-au-mbac-le-general-foy-de-horace-vernet"/>
-    <hyperlink ref="P4" r:id="rId2" location="" tooltip="" display="https://collections.louvre.fr/en/ark:/53355/cl010066181"/>
-    <hyperlink ref="P5" r:id="rId3" location="" tooltip="" display="http://collections.chateauversailles.fr/#c642f149-1db0-4bcf-ae0b-0e5a7998c5c4"/>
-    <hyperlink ref="P6" r:id="rId4" location="" tooltip="" display="https://www.parismuseescollections.paris.fr/fr/musee-carnavalet/oeuvres/1807-8#infos-principales"/>
-    <hyperlink ref="P7" r:id="rId5" location="" tooltip="" display="https://pushkinmuseum.art/data/fonds/europe_and_america/j/0000_1000/zh_1441/index.php?lang=en"/>
-    <hyperlink ref="P8" r:id="rId6" location="" tooltip="" display="https://www.photo.rmn.fr/C.aspx?VP3=SearchResult&amp;IID=2C6NU0PZU16A"/>
-    <hyperlink ref="P9" r:id="rId7" location="" tooltip="" display="http://collections.chateauversailles.fr/#852dd255-e13c-40ea-b193-c214b96f8a13"/>
-    <hyperlink ref="P10" r:id="rId8" location="" tooltip="" display="http://collections.chateauversailles.fr/#cbbfabe4-6eff-4def-b3e1-7537e94a058f"/>
-    <hyperlink ref="P11" r:id="rId9" location="" tooltip="" display="http://collections.chateauversailles.fr/#14c410c1-0f3a-4c0d-bfe1-00e1b61a0b65"/>
-    <hyperlink ref="P12" r:id="rId10" location="" tooltip="" display="http://collections.chateauversailles.fr/#c25ecc42-aea5-475f-a2d7-b8d2d1d665c3"/>
-    <hyperlink ref="P13" r:id="rId11" location="" tooltip="" display="https://www.leonore.archives-nationales.culture.gouv.fr/ui/#spotlight"/>
-    <hyperlink ref="P14" r:id="rId12" location="" tooltip="" display="http://collections.chateauversailles.fr/#fb4373d5-9761-4101-9d3a-7b71e3445c81"/>
-    <hyperlink ref="P15" r:id="rId13" location="" tooltip="" display="http://collections.chateauversailles.fr/#e5a6a027-7532-45a7-9823-06d7caba8481"/>
-    <hyperlink ref="P16" r:id="rId14" location="" tooltip="" display="https://www.parismuseescollections.paris.fr/fr/musee-carnavalet/oeuvres/portrait-du-general-francois-marceau-des-graviers-1769-1796#infos-principales"/>
-    <hyperlink ref="P17" r:id="rId15" location="" tooltip="" display="https://basedescollections.musee-armee.fr/ark:/66008/19814?posInSet=3&amp;queryId=7b364aaf-7d96-4a90-b17f-790fba3a6cd3&amp;_ga=2.252761865.1237765214.1638032746-666880445.1622413639"/>
-    <hyperlink ref="P18" r:id="rId16" location="" tooltip="" display="https://gallica.bnf.fr/ark:/12148/btv1b69537010.r=Hoche%20Lazare%2C%20g%C3%A9n%C3%A9ral?rk=128756;0"/>
-    <hyperlink ref="P19" r:id="rId17" location="" tooltip="" display="http://collections.chateauversailles.fr/#35db6146-a2d4-416e-ba11-c0e9e7e96a52"/>
-    <hyperlink ref="P20" r:id="rId18" location="" tooltip="" display="http://collections.chateauversailles.fr/#2b8d1827-0e3e-4049-b231-8e63d54626fa"/>
-    <hyperlink ref="P21" r:id="rId19" location="" tooltip="" display="http://collections.chateauversailles.fr/#877b3b96-1a0f-4be0-932e-ca02d915d073"/>
-    <hyperlink ref="P22" r:id="rId20" location="" tooltip="" display="http://collections.chateauversailles.fr/#6bb87679-5266-43a4-bf63-a2f79168189b"/>
-    <hyperlink ref="P23" r:id="rId21" location="" tooltip="" display="http://collections.chateauversailles.fr/#9759ccab-2b5f-4231-b7bf-1ea3a69afdb1"/>
+    <hyperlink ref="P2" r:id="rId1" display="https://www.beaux-arts.ca/magazine/votre-collection/votre-collection-au-mbac-le-general-foy-de-horace-vernet" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P3" r:id="rId2" display="https://collections.louvre.fr/en/ark:/53355/cl010066181" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="P4" r:id="rId3" location="c642f149-1db0-4bcf-ae0b-0e5a7998c5c4" display="http://collections.chateauversailles.fr/#c642f149-1db0-4bcf-ae0b-0e5a7998c5c4" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="P5" r:id="rId4" location="infos-principales" display="https://www.parismuseescollections.paris.fr/fr/musee-carnavalet/oeuvres/1807-8#infos-principales" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="P6" r:id="rId5" display="https://pushkinmuseum.art/data/fonds/europe_and_america/j/0000_1000/zh_1441/index.php?lang=en" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="P7" r:id="rId6" display="https://www.photo.rmn.fr/C.aspx?VP3=SearchResult&amp;IID=2C6NU0PZU16A" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="P8" r:id="rId7" location="852dd255-e13c-40ea-b193-c214b96f8a13" display="http://collections.chateauversailles.fr/#852dd255-e13c-40ea-b193-c214b96f8a13" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="P9" r:id="rId8" location="cbbfabe4-6eff-4def-b3e1-7537e94a058f" display="http://collections.chateauversailles.fr/#cbbfabe4-6eff-4def-b3e1-7537e94a058f" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="P10" r:id="rId9" location="14c410c1-0f3a-4c0d-bfe1-00e1b61a0b65" display="http://collections.chateauversailles.fr/#14c410c1-0f3a-4c0d-bfe1-00e1b61a0b65" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="P11" r:id="rId10" location="c25ecc42-aea5-475f-a2d7-b8d2d1d665c3" display="http://collections.chateauversailles.fr/#c25ecc42-aea5-475f-a2d7-b8d2d1d665c3" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="P12" r:id="rId11" location="spotlight" display="https://www.leonore.archives-nationales.culture.gouv.fr/ui/#spotlight" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="P13" r:id="rId12" location="fb4373d5-9761-4101-9d3a-7b71e3445c81" display="http://collections.chateauversailles.fr/#fb4373d5-9761-4101-9d3a-7b71e3445c81" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="P14" r:id="rId13" location="e5a6a027-7532-45a7-9823-06d7caba8481" display="http://collections.chateauversailles.fr/#e5a6a027-7532-45a7-9823-06d7caba8481" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="P15" r:id="rId14" location="infos-principales" display="https://www.parismuseescollections.paris.fr/fr/musee-carnavalet/oeuvres/portrait-du-general-francois-marceau-des-graviers-1769-1796#infos-principales" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="P16" r:id="rId15" display="https://basedescollections.musee-armee.fr/ark:/66008/19814?posInSet=3&amp;queryId=7b364aaf-7d96-4a90-b17f-790fba3a6cd3&amp;_ga=2.252761865.1237765214.1638032746-666880445.1622413639" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="P17" r:id="rId16" display="https://gallica.bnf.fr/ark:/12148/btv1b69537010.r=Hoche%20Lazare%2C%20g%C3%A9n%C3%A9ral?rk=128756;0" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="P18" r:id="rId17" location="35db6146-a2d4-416e-ba11-c0e9e7e96a52" display="http://collections.chateauversailles.fr/#35db6146-a2d4-416e-ba11-c0e9e7e96a52" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="P19" r:id="rId18" location="2b8d1827-0e3e-4049-b231-8e63d54626fa" display="http://collections.chateauversailles.fr/#2b8d1827-0e3e-4049-b231-8e63d54626fa" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="P20" r:id="rId19" location="877b3b96-1a0f-4be0-932e-ca02d915d073" display="http://collections.chateauversailles.fr/#877b3b96-1a0f-4be0-932e-ca02d915d073" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="P21" r:id="rId20" location="6bb87679-5266-43a4-bf63-a2f79168189b" display="http://collections.chateauversailles.fr/#6bb87679-5266-43a4-bf63-a2f79168189b" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="P22" r:id="rId21" location="9759ccab-2b5f-4231-b7bf-1ea3a69afdb1" display="http://collections.chateauversailles.fr/#9759ccab-2b5f-4231-b7bf-1ea3a69afdb1" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
